--- a/pred_ohlcv/54_21/2019-10-24 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>819764.0875000001</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>819764.0875000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>545569.3875000002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>873290.3863000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>915422.4826000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1043039.2484</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1044556.0851</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1789234.802594949</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1763737.97359495</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1189401.28769495</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1188934.28769495</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>800936.1134949498</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1457212.529039652</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1457212.529039652</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1438629.055639652</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>965137.2995396521</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>827569.4739580192</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>811788.7431580191</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>809829.4231580192</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>809708.4231580192</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>808161.7380580192</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>808161.7380580192</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>693798.9197580192</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>708653.3157580191</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>708653.3157580191</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>623237.0699580191</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>623237.0699580191</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>630540.3725580191</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>329145.9547580191</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>15111.32705801911</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>25988.55305801911</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>23142.71965801911</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>23142.71965801911</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>23142.71965801911</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>23152.71965801911</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>10570.48635801911</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>27074.04245801911</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>27074.04245801911</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>27074.04245801911</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>27026.17925801911</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>27026.17925801911</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-38992.59744198089</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3087.928958019111</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>3647.630358019111</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>3677.630358019111</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>78119.33735801911</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>52650.33735801911</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>14986.85715801911</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>15070.21295801911</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-6886.787041980888</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-156631.1841419809</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-156631.1841419809</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-216089.4924419809</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-216079.4924419809</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-216079.4924419809</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-395777.4924419809</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-390177.4924419809</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-480505.2445419809</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-249115.5736419809</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-274861.4106419809</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-126779.9267419809</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-24 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>819764.0875000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>819764.0875000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>545569.3875000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>873290.3863000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>915422.4826000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1043039.2484</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1044556.0851</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1869117.57569495</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1869117.57569495</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1839209.77009495</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1839209.77009495</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1839209.77009495</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1839219.77009495</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1789234.802594949</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1763737.97359495</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1189401.28769495</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1188934.28769495</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1189344.28769495</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1196212.13809495</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>792082.4045949498</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>800936.1134949498</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>962328.1520580192</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>827569.4739580192</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>811788.7431580191</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>811798.7431580191</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>809829.4231580192</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>809708.4231580192</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>808041.7380580192</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>808151.7380580192</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>808161.7380580192</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>808161.7380580192</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>693798.9197580192</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>708653.3157580191</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>623237.0699580191</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>623237.0699580191</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>630540.3725580191</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>630550.3725580191</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>440469.5746580191</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>15111.32705801911</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>25988.55305801911</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>23142.71965801911</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>23142.71965801911</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>27074.04245801911</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>27074.04245801911</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>27026.17925801911</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>27026.17925801911</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-38992.59744198089</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3087.928958019111</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>3647.630358019111</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>3677.630358019111</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>14986.85715801911</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-216089.4924419809</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-216079.4924419809</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-216079.4924419809</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-337971.4924419809</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-395777.4924419809</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-390177.4924419809</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-480605.2445419809</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-480505.2445419809</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-480545.1945419809</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-410626.7818419809</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
